--- a/Data/Processed/Angiosperms/missing_powo_ipni/Samydaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Samydaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -14600,7 +14600,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -17119,7 +17119,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -21046,7 +21046,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -22157,7 +22157,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -24929,7 +24929,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -25182,7 +25182,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -25468,7 +25468,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -25919,7 +25919,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -26007,7 +26007,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -26381,7 +26381,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -26744,7 +26744,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -27492,7 +27492,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -27690,7 +27690,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -28856,7 +28856,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -29219,7 +29219,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -29395,7 +29395,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -29813,7 +29813,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -30176,7 +30176,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
